--- a/biology/Médecine/Harold_Searles/Harold_Searles.xlsx
+++ b/biology/Médecine/Harold_Searles/Harold_Searles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harold Searles, né à Hancok dans les montagnes Catskill (New York) le 1er septembre 1918, et mort à Los Angeles le 18 novembre 2015, est un psychanalyste américain. Il étudie plus particulièrement la question de la psychose, des schizophrénies et des personnalités frontières. De 1952 à 1964, il travaille à la clinique Chesnut Lodge, dans le Maryland, spécialisé dans l'approche psychothérapique psychanalytique des schizophrènes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harold Searles, né à Hancok dans les montagnes Catskill (New York) le 1er septembre 1918, et mort à Los Angeles le 18 novembre 2015, est un psychanalyste américain. Il étudie plus particulièrement la question de la psychose, des schizophrénies et des personnalités frontières. De 1952 à 1964, il travaille à la clinique Chesnut Lodge, dans le Maryland, spécialisé dans l'approche psychothérapique psychanalytique des schizophrènes.
 Influencé par les travaux de Harry Stack Sullivan, Searles développe la conception du contre-transfert. Dans ses livres, il développe notamment des idées proches du concept kleinien d'identification projective et la notion de double contrainte. Il est souvent associé au courant intersubjectiviste qui domine l'école américaine de psychanalyse.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Contre-transfert, Gallimard, coll. « Poche-Folio », 2005 (1re éd. 1981) (ISBN 2-07-030712-3)
 Mon expérience des états-limites, Gallimard, 1994 (ISBN 2-07-072970-2)
